--- a/data/shopping_data.xlsx
+++ b/data/shopping_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>wet paper</t>
+  </si>
+  <si>
+    <t>parvez hand cash</t>
   </si>
 </sst>
 </file>
@@ -302,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,10 +336,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>45.5</v>
+        <v>100.0</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>5</v>
@@ -347,10 +350,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>78.5</v>
+        <v>100.0</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>5</v>
@@ -358,27 +361,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>455.0</v>
+        <v>45.5</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>45.5</v>
+        <v>78.5</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>9</v>
@@ -386,41 +389,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>78.5</v>
+        <v>2040.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>2040.0</v>
+        <v>250.0</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>250.0</v>
+        <v>550.0</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>14</v>
@@ -428,13 +431,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>550.0</v>
+        <v>500.0</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>14</v>
@@ -442,13 +445,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>14</v>
@@ -456,13 +459,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>14</v>
@@ -470,13 +473,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>14</v>
@@ -484,7 +487,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>19</v>
@@ -498,27 +501,27 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>80.0</v>
+        <v>2100.0</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>2100.0</v>
+        <v>100.0</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>21</v>
@@ -526,13 +529,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>21</v>
@@ -540,27 +543,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>3000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>12</v>
@@ -568,13 +571,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>100.0</v>
+        <v>400.0</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>12</v>
@@ -582,13 +585,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>400.0</v>
+        <v>140.0</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>12</v>
@@ -596,13 +599,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>12</v>
@@ -610,41 +613,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="0">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>180.0</v>
+        <v>100.0</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>30.0</v>
+        <v>620.0</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>31</v>
@@ -652,13 +655,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>620.0</v>
+        <v>60.0</v>
       </c>
       <c r="D25" t="s" s="0">
         <v>31</v>
@@ -666,13 +669,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>60.0</v>
+        <v>180.0</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>31</v>
@@ -680,13 +683,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>180.0</v>
+        <v>300.0</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>31</v>
@@ -694,27 +697,27 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>300.0</v>
+        <v>80.0</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>37</v>
@@ -722,13 +725,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>37</v>
@@ -736,13 +739,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>30.0</v>
+        <v>160.0</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>37</v>
@@ -750,13 +753,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>160.0</v>
+        <v>30.0</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>37</v>
@@ -764,13 +767,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>30.0</v>
+        <v>130.0</v>
       </c>
       <c r="D33" t="s" s="0">
         <v>37</v>
@@ -778,27 +781,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="0">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>130.0</v>
+        <v>100.0</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="0">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="D35" t="s" s="0">
         <v>44</v>
@@ -806,13 +809,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="0">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>115.0</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>44</v>
@@ -820,13 +823,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="0">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>115.0</v>
+        <v>30.0</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>44</v>
@@ -834,13 +837,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="0">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>44</v>
@@ -848,13 +851,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="0">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>44</v>
@@ -862,13 +865,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="0">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>44</v>
@@ -876,13 +879,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="0">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>80.0</v>
+        <v>900.0</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>44</v>
@@ -890,10 +893,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="0">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="n" s="0">
         <v>900.0</v>
@@ -904,27 +907,27 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="0">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>900.0</v>
+        <v>80.0</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="0">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>80.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>54</v>
@@ -932,13 +935,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="0">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>1100.0</v>
+        <v>100.0</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>54</v>
@@ -946,13 +949,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="0">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>100.0</v>
+        <v>450.0</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>54</v>
@@ -960,13 +963,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="0">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>450.0</v>
+        <v>1600.0</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>54</v>
@@ -974,13 +977,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="0">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>1600.0</v>
+        <v>3040.0</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>54</v>
@@ -988,13 +991,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="0">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>3040.0</v>
+        <v>260.0</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>54</v>
@@ -1002,13 +1005,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>260.0</v>
+        <v>2100.0</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>54</v>
@@ -1016,27 +1019,27 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="0">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>2100.0</v>
+        <v>150.0</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="0">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>150.0</v>
+        <v>80.0</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>63</v>
@@ -1044,13 +1047,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="0">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>80.0</v>
+        <v>250.0</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>63</v>
@@ -1058,13 +1061,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="0">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>250.0</v>
+        <v>30.0</v>
       </c>
       <c r="D54" t="s" s="0">
         <v>63</v>
@@ -1072,13 +1075,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="0">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>150.0</v>
       </c>
       <c r="D55" t="s" s="0">
         <v>63</v>
@@ -1086,10 +1089,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="0">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" t="n" s="0">
         <v>150.0</v>
@@ -1100,13 +1103,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="0">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>150.0</v>
+        <v>110.0</v>
       </c>
       <c r="D57" t="s" s="0">
         <v>63</v>
@@ -1114,27 +1117,27 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="0">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>110.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="0">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>3000.0</v>
+        <v>500.0</v>
       </c>
       <c r="D59" t="s" s="0">
         <v>71</v>
@@ -1142,13 +1145,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="0">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>500.0</v>
+        <v>150.0</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>71</v>
@@ -1156,13 +1159,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="0">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>150.0</v>
+        <v>200.0</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>71</v>
@@ -1170,13 +1173,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="0">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>200.0</v>
+        <v>270.0</v>
       </c>
       <c r="D62" t="s" s="0">
         <v>71</v>
@@ -1184,13 +1187,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="0">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>270.0</v>
+        <v>11000.0</v>
       </c>
       <c r="D63" t="s" s="0">
         <v>71</v>
@@ -1198,24 +1201,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="0">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>11000.0</v>
+        <v>50.0</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="0">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C65" t="n" s="0">
         <v>50.0</v>
@@ -1226,13 +1229,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="0">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>50.0</v>
+        <v>140.0</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>77</v>
@@ -1240,29 +1243,15 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="0">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="0">
-        <v>67.0</v>
-      </c>
-      <c r="B68" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C68" t="n" s="0">
-        <v>260.0</v>
-      </c>
-      <c r="D68" t="s" s="0">
         <v>77</v>
       </c>
     </row>
